--- a/data/trans_camb/P5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 12,89</t>
+          <t>0,24; 13,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 12,45</t>
+          <t>0,01; 11,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -3,1</t>
+          <t>-18,03; -3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 9,25</t>
+          <t>-2,87; 10,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 6,18</t>
+          <t>-6,38; 6,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 0,05</t>
+          <t>-16,07; 0,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,54</t>
+          <t>0,71; 9,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,52</t>
+          <t>-1,6; 7,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -4,12</t>
+          <t>-15,18; -4,53</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 49,0</t>
+          <t>0,2; 49,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 47,4</t>
+          <t>0,02; 44,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,45; -11,26</t>
+          <t>-57,69; -11,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 29,7</t>
+          <t>-7,74; 32,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,16; 20,01</t>
+          <t>-17,23; 20,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 0,9</t>
+          <t>-44,49; 1,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 32,66</t>
+          <t>2,04; 32,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 26,05</t>
+          <t>-4,76; 24,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -13,32</t>
+          <t>-45,81; -15,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 17,21</t>
+          <t>6,84; 17,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 13,85</t>
+          <t>3,59; 14,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -5,0</t>
+          <t>-15,46; -3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 11,92</t>
+          <t>1,13; 12,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 11,98</t>
+          <t>1,1; 12,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -6,36</t>
+          <t>-16,98; -5,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,35</t>
+          <t>5,23; 12,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,26</t>
+          <t>4,06; 11,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -6,68</t>
+          <t>-15,09; -6,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,28; 66,7</t>
+          <t>22,74; 68,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 53,24</t>
+          <t>11,45; 54,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; -18,5</t>
+          <t>-52,49; -15,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 41,15</t>
+          <t>3,08; 41,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 41,31</t>
+          <t>3,25; 40,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -20,4</t>
+          <t>-50,05; -19,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 46,95</t>
+          <t>15,87; 46,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 40,25</t>
+          <t>12,66; 42,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -23,09</t>
+          <t>-48,19; -24,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 13,65</t>
+          <t>2,87; 13,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,15</t>
+          <t>-1,94; 8,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -3,7</t>
+          <t>-13,8; -3,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 9,01</t>
+          <t>-2,63; 8,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 5,75</t>
+          <t>-5,22; 5,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,32; -13,61</t>
+          <t>-23,54; -13,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 9,44</t>
+          <t>1,88; 9,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,43</t>
+          <t>-2,22; 4,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -10,55</t>
+          <t>-17,5; -10,1</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 49,67</t>
+          <t>8,88; 51,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 29,23</t>
+          <t>-5,83; 32,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,92; -13,46</t>
+          <t>-43,28; -11,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 25,61</t>
+          <t>-6,82; 23,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 16,57</t>
+          <t>-13,08; 15,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,66; -39,38</t>
+          <t>-58,91; -39,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,8; 29,27</t>
+          <t>5,16; 29,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 16,31</t>
+          <t>-6,25; 15,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -32,03</t>
+          <t>-48,86; -31,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,83</t>
+          <t>2,08; 14,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 12,08</t>
+          <t>0,36; 12,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -6,93</t>
+          <t>-19,4; -7,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 13,8</t>
+          <t>2,67; 14,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 8,75</t>
+          <t>-1,74; 9,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -9,5</t>
+          <t>-19,58; -9,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 11,89</t>
+          <t>4,0; 11,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,17</t>
+          <t>0,93; 9,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -9,84</t>
+          <t>-17,56; -10,12</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,3; 46,44</t>
+          <t>5,42; 48,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 41,12</t>
+          <t>0,96; 43,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,63; -23,97</t>
+          <t>-55,01; -23,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,13; 42,08</t>
+          <t>6,69; 44,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 26,87</t>
+          <t>-4,51; 29,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -28,73</t>
+          <t>-50,88; -29,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,67; 37,24</t>
+          <t>10,75; 37,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 28,67</t>
+          <t>2,26; 29,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -31,33</t>
+          <t>-48,21; -31,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,74; 20,04</t>
+          <t>6,55; 19,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 13,4</t>
+          <t>0,18; 13,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -8,36</t>
+          <t>-19,53; -8,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 9,39</t>
+          <t>-3,94; 9,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,59</t>
+          <t>-5,28; 7,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -10,39</t>
+          <t>-21,32; -10,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,85; 12,02</t>
+          <t>3,12; 12,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 8,42</t>
+          <t>-0,79; 8,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,75; -11,1</t>
+          <t>-18,73; -10,99</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20,4; 75,79</t>
+          <t>19,53; 73,94</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 49,44</t>
+          <t>0,54; 51,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -31,39</t>
+          <t>-58,1; -32,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 27,63</t>
+          <t>-9,9; 29,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 23,8</t>
+          <t>-13,58; 22,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -31,18</t>
+          <t>-52,52; -31,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,89; 38,22</t>
+          <t>8,57; 40,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 27,68</t>
+          <t>-2,23; 26,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -35,34</t>
+          <t>-51,84; -36,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,27; 18,94</t>
+          <t>7,33; 18,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,99; 11,68</t>
+          <t>1,73; 12,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -7,22</t>
+          <t>-15,58; -6,71</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,15</t>
+          <t>3,06; 13,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,27</t>
+          <t>-4,62; 6,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 14,46</t>
+          <t>-17,0; 15,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,87</t>
+          <t>6,19; 13,79</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,44</t>
+          <t>-0,08; 7,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 8,38</t>
+          <t>-14,64; 9,69</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,53; 74,81</t>
+          <t>24,05; 77,51</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,24; 45,73</t>
+          <t>5,3; 51,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -28,43</t>
+          <t>-51,62; -27,56</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,58; 44,51</t>
+          <t>8,94; 45,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 21,14</t>
+          <t>-13,08; 21,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 49,24</t>
+          <t>-51,37; 52,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,92; 49,3</t>
+          <t>19,78; 49,44</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,09; 26,31</t>
+          <t>-0,23; 26,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 28,82</t>
+          <t>-47,55; 36,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,47</t>
+          <t>7,68; 12,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,55</t>
+          <t>4,34; 8,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -9,15</t>
+          <t>-13,48; -9,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,64</t>
+          <t>3,06; 7,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,7</t>
+          <t>-0,12; 4,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -2,98</t>
+          <t>-15,16; -3,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,57</t>
+          <t>6,08; 9,46</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,91</t>
+          <t>2,68; 5,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,45</t>
+          <t>-13,56; -7,48</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>26,31; 43,88</t>
+          <t>25,32; 44,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>13,65; 30,0</t>
+          <t>14,51; 31,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-44,57; -32,0</t>
+          <t>-44,01; -31,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,59; 23,08</t>
+          <t>8,33; 23,07</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,11; 14,36</t>
+          <t>-0,34; 13,45</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,56; -7,95</t>
+          <t>-43,5; -9,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,77; 30,56</t>
+          <t>18,54; 30,48</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,74; 18,72</t>
+          <t>8,17; 18,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,78; -20,32</t>
+          <t>-41,73; -22,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 13,26</t>
+          <t>1,1; 12,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 11,93</t>
+          <t>-0,18; 12,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -3,44</t>
+          <t>-18,69; -3,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 10,21</t>
+          <t>-2,84; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 6,41</t>
+          <t>-5,89; 6,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 0,51</t>
+          <t>-15,82; 1,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,7</t>
+          <t>0,94; 9,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 7,14</t>
+          <t>-0,87; 7,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -4,53</t>
+          <t>-14,91; -4,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 49,01</t>
+          <t>3,94; 50,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 44,36</t>
+          <t>-0,46; 46,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,69; -11,43</t>
+          <t>-58,97; -12,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 32,53</t>
+          <t>-7,99; 31,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 20,76</t>
+          <t>-16,36; 21,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,49; 1,8</t>
+          <t>-43,88; 2,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 32,7</t>
+          <t>3,11; 33,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 24,15</t>
+          <t>-2,71; 26,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -15,2</t>
+          <t>-46,23; -15,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 17,04</t>
+          <t>6,76; 16,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 14,19</t>
+          <t>3,4; 14,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,46; -3,96</t>
+          <t>-15,92; -5,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 12,25</t>
+          <t>0,53; 11,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 12,07</t>
+          <t>1,14; 12,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,98; -5,71</t>
+          <t>-17,67; -6,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,96</t>
+          <t>5,25; 12,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 11,63</t>
+          <t>3,96; 12,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,09; -6,91</t>
+          <t>-14,83; -6,65</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,74; 68,0</t>
+          <t>21,72; 65,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 54,53</t>
+          <t>11,37; 54,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,49; -15,69</t>
+          <t>-52,98; -18,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 41,78</t>
+          <t>1,45; 39,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 40,61</t>
+          <t>3,18; 42,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,05; -19,84</t>
+          <t>-50,33; -21,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 46,78</t>
+          <t>16,6; 45,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 42,05</t>
+          <t>11,85; 42,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,19; -24,11</t>
+          <t>-47,84; -23,9</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,96</t>
+          <t>3,21; 14,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,92</t>
+          <t>-2,27; 8,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -3,26</t>
+          <t>-14,31; -3,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,35</t>
+          <t>-2,7; 7,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 5,21</t>
+          <t>-4,89; 5,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -13,89</t>
+          <t>-23,35; -13,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 9,5</t>
+          <t>1,81; 9,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 4,99</t>
+          <t>-2,08; 5,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -10,1</t>
+          <t>-17,51; -10,22</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 51,11</t>
+          <t>9,38; 52,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 32,22</t>
+          <t>-6,97; 32,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,28; -11,44</t>
+          <t>-43,83; -11,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 23,65</t>
+          <t>-6,67; 22,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 15,38</t>
+          <t>-12,27; 14,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,91; -39,32</t>
+          <t>-59,23; -39,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,16; 29,62</t>
+          <t>5,13; 29,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 15,32</t>
+          <t>-5,88; 15,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -31,52</t>
+          <t>-48,7; -31,9</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,1</t>
+          <t>1,82; 13,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 12,64</t>
+          <t>0,06; 12,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,4; -7,08</t>
+          <t>-19,8; -7,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 14,51</t>
+          <t>1,83; 13,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 9,47</t>
+          <t>-2,07; 9,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -9,5</t>
+          <t>-19,35; -9,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,88</t>
+          <t>3,78; 12,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,18</t>
+          <t>0,91; 9,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -10,12</t>
+          <t>-17,5; -9,75</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,42; 48,63</t>
+          <t>4,84; 46,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 43,09</t>
+          <t>0,73; 42,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-55,01; -23,91</t>
+          <t>-54,97; -24,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 44,21</t>
+          <t>4,89; 41,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 29,17</t>
+          <t>-5,0; 31,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,88; -29,23</t>
+          <t>-50,07; -29,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 37,72</t>
+          <t>10,16; 37,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 29,19</t>
+          <t>2,58; 29,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,21; -31,28</t>
+          <t>-48,34; -30,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,55; 19,9</t>
+          <t>6,14; 19,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 13,32</t>
+          <t>0,27; 13,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,53; -8,77</t>
+          <t>-19,26; -8,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 9,61</t>
+          <t>-4,26; 9,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,55</t>
+          <t>-5,87; 7,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,32; -10,15</t>
+          <t>-20,83; -10,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 12,58</t>
+          <t>2,75; 12,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,24</t>
+          <t>-0,94; 8,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,73; -10,99</t>
+          <t>-18,59; -10,91</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,53; 73,94</t>
+          <t>18,3; 71,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,54; 51,1</t>
+          <t>0,78; 48,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-58,1; -32,7</t>
+          <t>-56,91; -32,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 29,6</t>
+          <t>-10,69; 28,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 22,21</t>
+          <t>-14,27; 22,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,52; -31,0</t>
+          <t>-51,63; -30,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>8,57; 40,63</t>
+          <t>7,76; 39,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 26,66</t>
+          <t>-2,57; 26,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,84; -36,0</t>
+          <t>-51,87; -35,14</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,33; 18,85</t>
+          <t>6,69; 18,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,73; 12,54</t>
+          <t>1,25; 12,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -6,71</t>
+          <t>-16,07; -7,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,06; 13,09</t>
+          <t>2,54; 12,6</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 6,2</t>
+          <t>-3,4; 6,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 15,28</t>
+          <t>-16,97; 16,13</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,19; 13,79</t>
+          <t>6,44; 13,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 7,45</t>
+          <t>-0,16; 7,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 9,69</t>
+          <t>-14,46; 8,99</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>24,05; 77,51</t>
+          <t>21,49; 71,92</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,3; 51,47</t>
+          <t>4,11; 49,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,62; -27,56</t>
+          <t>-52,14; -28,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>8,94; 45,36</t>
+          <t>7,52; 43,65</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 21,13</t>
+          <t>-10,13; 22,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 52,24</t>
+          <t>-51,42; 51,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,78; 49,44</t>
+          <t>20,05; 49,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 26,34</t>
+          <t>-0,52; 25,88</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 36,17</t>
+          <t>-47,34; 31,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,5</t>
+          <t>8,05; 12,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,8</t>
+          <t>4,25; 8,66</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,48; -9,02</t>
+          <t>-13,47; -9,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,65</t>
+          <t>3,08; 7,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,46</t>
+          <t>-0,05; 4,51</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -3,26</t>
+          <t>-15,35; -4,5</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,46</t>
+          <t>6,15; 9,51</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,82</t>
+          <t>2,7; 5,86</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,56; -7,48</t>
+          <t>-13,71; -7,79</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>25,32; 44,11</t>
+          <t>26,46; 44,43</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>14,51; 31,0</t>
+          <t>13,61; 30,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-44,01; -31,87</t>
+          <t>-44,29; -32,28</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,33; 23,07</t>
+          <t>8,65; 23,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 13,45</t>
+          <t>-0,1; 13,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,5; -9,78</t>
+          <t>-43,93; -12,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,54; 30,48</t>
+          <t>18,68; 30,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,17; 18,79</t>
+          <t>8,18; 18,88</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-41,73; -22,75</t>
+          <t>-42,09; -23,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 12,91</t>
+          <t>0,73; 12,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 12,03</t>
+          <t>0,21; 12,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -3,53</t>
+          <t>-18,3; -3,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 9,46</t>
+          <t>-3,37; 9,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 6,81</t>
+          <t>-6,37; 6,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 1,02</t>
+          <t>-15,93; 0,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 9,78</t>
+          <t>1,09; 9,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 7,62</t>
+          <t>-0,76; 7,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -4,62</t>
+          <t>-15,05; -4,12</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 50,06</t>
+          <t>3,26; 49,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 46,06</t>
+          <t>0,39; 47,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,97; -12,35</t>
+          <t>-59,45; -11,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 31,79</t>
+          <t>-9,29; 29,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 21,95</t>
+          <t>-17,16; 20,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 2,3</t>
+          <t>-45,21; 0,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 33,47</t>
+          <t>3,34; 32,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 26,28</t>
+          <t>-2,22; 26,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,23; -15,65</t>
+          <t>-45,74; -13,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 16,8</t>
+          <t>6,62; 17,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,02</t>
+          <t>3,66; 13,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -5,06</t>
+          <t>-15,86; -5,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 11,67</t>
+          <t>0,42; 11,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 12,38</t>
+          <t>1,02; 11,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,67; -6,38</t>
+          <t>-17,84; -6,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,92</t>
+          <t>5,68; 13,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,05</t>
+          <t>4,38; 11,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,83; -6,65</t>
+          <t>-14,61; -6,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 65,12</t>
+          <t>21,28; 66,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 54,55</t>
+          <t>12,14; 53,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,98; -18,07</t>
+          <t>-53,72; -18,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 39,15</t>
+          <t>1,34; 41,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 42,04</t>
+          <t>2,99; 41,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,33; -21,06</t>
+          <t>-51,97; -20,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 45,88</t>
+          <t>17,72; 46,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,85; 42,44</t>
+          <t>13,93; 40,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,84; -23,9</t>
+          <t>-47,31; -23,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,09</t>
+          <t>2,69; 13,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 8,67</t>
+          <t>-1,84; 8,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,31; -3,27</t>
+          <t>-14,21; -3,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,71</t>
+          <t>-1,94; 9,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,04</t>
+          <t>-5,41; 5,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -13,87</t>
+          <t>-23,32; -13,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 9,37</t>
+          <t>1,76; 9,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,02</t>
+          <t>-1,91; 5,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,51; -10,22</t>
+          <t>-17,24; -10,55</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,38; 52,36</t>
+          <t>8,33; 49,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 32,6</t>
+          <t>-5,99; 29,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,83; -11,74</t>
+          <t>-43,92; -13,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 22,45</t>
+          <t>-4,75; 25,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 14,56</t>
+          <t>-13,34; 16,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,23; -39,34</t>
+          <t>-57,66; -39,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 29,47</t>
+          <t>4,8; 29,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 15,78</t>
+          <t>-5,51; 16,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-48,7; -31,9</t>
+          <t>-47,89; -32,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,64</t>
+          <t>1,45; 13,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,12</t>
+          <t>-0,01; 12,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -7,19</t>
+          <t>-19,19; -6,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,83; 13,37</t>
+          <t>1,9; 13,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 9,98</t>
+          <t>-2,01; 8,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -9,63</t>
+          <t>-19,22; -9,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,78; 12,15</t>
+          <t>3,85; 11,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,51</t>
+          <t>0,94; 9,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,5; -9,75</t>
+          <t>-17,29; -9,84</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,84; 46,34</t>
+          <t>4,3; 46,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 42,27</t>
+          <t>-0,17; 41,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,97; -24,34</t>
+          <t>-54,63; -23,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 41,56</t>
+          <t>5,13; 42,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 31,57</t>
+          <t>-5,28; 26,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,07; -29,83</t>
+          <t>-49,59; -28,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,16; 37,32</t>
+          <t>10,67; 37,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,58; 29,74</t>
+          <t>2,45; 28,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,34; -30,28</t>
+          <t>-48,55; -31,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 19,44</t>
+          <t>6,74; 20,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 13,08</t>
+          <t>-0,44; 13,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,26; -8,72</t>
+          <t>-19,89; -8,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 9,45</t>
+          <t>-4,55; 9,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 7,53</t>
+          <t>-5,83; 7,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -10,22</t>
+          <t>-21,05; -10,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 12,39</t>
+          <t>2,85; 12,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 8,37</t>
+          <t>-1,18; 8,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,59; -10,91</t>
+          <t>-18,75; -11,1</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>18,3; 71,6</t>
+          <t>20,4; 75,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,78; 48,32</t>
+          <t>-0,98; 49,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-56,91; -32,2</t>
+          <t>-57,78; -31,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 28,96</t>
+          <t>-11,33; 27,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 22,96</t>
+          <t>-14,3; 23,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-51,63; -30,73</t>
+          <t>-52,14; -31,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>7,76; 39,07</t>
+          <t>7,89; 38,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 26,18</t>
+          <t>-3,29; 27,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,87; -35,14</t>
+          <t>-51,23; -35,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,44</t>
+          <t>7,27; 18,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,09</t>
+          <t>0,99; 11,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -7,27</t>
+          <t>-16,24; -7,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,54; 12,6</t>
+          <t>2,5; 13,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 6,46</t>
+          <t>-3,91; 6,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 16,13</t>
+          <t>-16,76; 14,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,88</t>
+          <t>6,42; 13,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,35</t>
+          <t>0,05; 7,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 8,99</t>
+          <t>-14,84; 8,38</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>21,49; 71,92</t>
+          <t>23,53; 74,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,11; 49,57</t>
+          <t>2,24; 45,73</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -28,89</t>
+          <t>-52,68; -28,43</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>7,52; 43,65</t>
+          <t>6,58; 44,51</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 22,21</t>
+          <t>-12,05; 21,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 51,15</t>
+          <t>-51,25; 49,24</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>20,05; 49,36</t>
+          <t>19,92; 49,3</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 25,88</t>
+          <t>0,09; 26,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,34; 31,42</t>
+          <t>-48,19; 28,82</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8,05; 12,53</t>
+          <t>7,9; 12,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,66</t>
+          <t>4,22; 8,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,47; -9,12</t>
+          <t>-13,44; -9,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,08; 7,91</t>
+          <t>3,05; 7,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,51</t>
+          <t>0,02; 4,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,35; -4,5</t>
+          <t>-15,16; -2,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,51</t>
+          <t>6,15; 9,57</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,86</t>
+          <t>2,57; 5,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -7,79</t>
+          <t>-13,58; -6,45</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>26,46; 44,43</t>
+          <t>26,31; 43,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>13,61; 30,18</t>
+          <t>13,65; 30,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -32,28</t>
+          <t>-44,57; -32,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,65; 23,61</t>
+          <t>8,59; 23,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,64</t>
+          <t>0,11; 14,36</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,93; -12,15</t>
+          <t>-43,56; -7,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,49</t>
+          <t>18,77; 30,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,18; 18,88</t>
+          <t>7,74; 18,72</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-42,09; -23,5</t>
+          <t>-41,78; -20,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>-10,58</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -3,1</t>
+          <t>-18,78; -3,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 0,05</t>
+          <t>-16,36; -0,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,05; -4,12</t>
+          <t>-15,68; -4,78</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-38,47%</t>
+          <t>-40,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,91%</t>
+          <t>-25,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-31,45%</t>
+          <t>-33,73%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,45; -11,26</t>
+          <t>-60,86; -12,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 0,9</t>
+          <t>-46,58; -0,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -13,32</t>
+          <t>-47,89; -16,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,46</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-14,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-12,16</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -5,0</t>
+          <t>-15,93; -4,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,84; -6,36</t>
+          <t>-22,31; -8,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -6,68</t>
+          <t>-16,94; -7,79</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-37,47%</t>
+          <t>-37,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,46%</t>
+          <t>-44,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-36,23%</t>
+          <t>-40,88%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,72; -18,5</t>
+          <t>-53,84; -18,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,97; -20,4</t>
+          <t>-65,64; -28,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -23,09</t>
+          <t>-55,3; -27,28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,69</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-18,4</t>
+          <t>-19,43</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-13,74</t>
+          <t>-14,34</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,21; -3,7</t>
+          <t>-14,36; -3,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,32; -13,61</t>
+          <t>-25,0; -14,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,24; -10,55</t>
+          <t>-17,95; -10,89</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-29,03%</t>
+          <t>-29,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-48,99%</t>
+          <t>-51,74%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-40,53%</t>
+          <t>-42,29%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-43,92; -13,46</t>
+          <t>-44,13; -13,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,66; -39,38</t>
+          <t>-63,73; -41,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-47,89; -32,03</t>
+          <t>-50,52; -33,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,87</t>
+          <t>-16,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,59</t>
+          <t>-15,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-13,71</t>
+          <t>-16,39</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -6,93</t>
+          <t>-29,66; -8,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -9,5</t>
+          <t>-20,63; -10,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,29; -9,84</t>
+          <t>-23,69; -11,47</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-39,48%</t>
+          <t>-51,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-40,86%</t>
+          <t>-43,07%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,16%</t>
+          <t>-47,99%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,63; -23,97</t>
+          <t>-79,97; -27,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -28,73</t>
+          <t>-53,86; -31,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,55; -31,33</t>
+          <t>-68,49; -35,18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-13,88</t>
+          <t>-13,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-15,66</t>
+          <t>-15,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-14,85</t>
+          <t>-14,96</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -8,36</t>
+          <t>-19,84; -8,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -10,39</t>
+          <t>-21,12; -10,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,75; -11,1</t>
+          <t>-18,82; -11,16</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-45,8%</t>
+          <t>-45,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-42,68%</t>
+          <t>-43,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-44,23%</t>
+          <t>-44,58%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-57,78; -31,39</t>
+          <t>-57,85; -31,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-52,14; -31,18</t>
+          <t>-52,33; -31,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,23; -35,34</t>
+          <t>-51,54; -35,74</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,53</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>10,98</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>7,27; 18,94</t>
+          <t>9,11; 24,81</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,99; 11,68</t>
+          <t>3,44; 18,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,24; -7,22</t>
+          <t>-15,44; -4,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,15</t>
+          <t>-2,02; 13,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 6,27</t>
+          <t>-5,08; 10,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 14,46</t>
+          <t>-18,52; 45,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,42; 13,87</t>
+          <t>5,37; 15,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,05; 7,44</t>
+          <t>1,23; 11,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 8,38</t>
+          <t>-14,93; 39,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>59,68%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-41,46%</t>
+          <t>-36,34%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-19,65%</t>
+          <t>32,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-27,59%</t>
+          <t>11,59%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,53; 74,81</t>
+          <t>28,81; 105,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,24; 45,73</t>
+          <t>10,26; 76,22</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -28,43</t>
+          <t>-49,43; -18,14</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,58; 44,51</t>
+          <t>-5,17; 44,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 21,14</t>
+          <t>-13,45; 33,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 49,24</t>
+          <t>-52,61; 146,97</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>19,92; 49,3</t>
+          <t>16,4; 55,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,09; 26,31</t>
+          <t>3,61; 39,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 28,82</t>
+          <t>-46,99; 125,97</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>-13,63</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-12,17</t>
+          <t>-13,77</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-11,66</t>
+          <t>-13,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,47</t>
+          <t>0,11; 17,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,55</t>
+          <t>-7,54; 9,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -9,15</t>
+          <t>-21,09; -6,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,64</t>
+          <t>1,22; 16,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,7</t>
+          <t>-7,39; 7,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-15,16; -2,98</t>
+          <t>-20,09; -8,29</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,57</t>
+          <t>3,7; 15,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,91</t>
+          <t>-4,52; 6,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-13,58; -6,45</t>
+          <t>-18,51; -9,31</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>34,5%</t>
+          <t>31,16%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>-48,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>32,5%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>-46,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-36,43%</t>
+          <t>-47,5%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>0,93; 77,89</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-22,65; 39,9</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-62,58; -28,59</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 62,69</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-22,56; 29,27</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-58,52; -32,63</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 58,73</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 23,22</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-56,82; -36,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10,19</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-12,34</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-10,83</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-11,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,9; 12,47</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 8,55</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; -9,93</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 7,64</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 4,7</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-16,03; 5,24</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 9,57</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 5,91</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; -2,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>34,5%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>21,86%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-41,79%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>15,81%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-31,46%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>24,3%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-35,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>26,31; 43,88</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>13,65; 30,0</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-44,57; -32,0</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-55,31; -34,35</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>8,59; 23,08</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>0,11; 14,36</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-43,56; -7,95</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-46,18; 16,12</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>18,77; 30,56</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>7,74; 18,72</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-41,78; -20,32</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-45,02; -7,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
